--- a/xlsx/选举_intext.xlsx
+++ b/xlsx/选举_intext.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>选举</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>政策_政策_政治_选举</t>
@@ -53,43 +53,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>紀立信</t>
+    <t>纪立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%AB%8B%E6%B3%95%E5%A7%94%E5%93%A1</t>
   </si>
   <si>
-    <t>中華民國立法委員</t>
+    <t>中华民国立法委员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
-    <t>投票權</t>
+    <t>投票权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3</t>
   </si>
   <si>
-    <t>婦女</t>
+    <t>妇女</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
-    <t>婦女投票權</t>
+    <t>妇女投票权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>美國民權運動</t>
+    <t>美国民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BB%BD%E8%AD%89</t>
   </si>
   <si>
-    <t>身份證</t>
+    <t>身份证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99</t>
   </si>
   <si>
-    <t>義務</t>
+    <t>义务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%98%E5%BD%B9</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E7%BD%B2</t>
   </si>
   <si>
-    <t>連署</t>
+    <t>连署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>代議制民主</t>
+    <t>代议制民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -323,19 +323,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>美國選舉人團</t>
+    <t>美国选举人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
@@ -347,9 +347,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
   </si>
   <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
   </si>
   <si>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -413,61 +410,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>多數制</t>
+    <t>多数制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E5%90%8D%E5%96%AE%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>政黨名單比例代表制</t>
+    <t>政党名单比例代表制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E9%81%B8%E5%8D%80%E5%85%A9%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>單一選區兩票制</t>
+    <t>单一选区两票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E9%81%B8%E5%8D%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一選區制</t>
+    <t>单一选区制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%A4%9A%E6%95%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>絕對多數制</t>
+    <t>绝对多数制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%BD%89%E7%A7%BB%E5%96%AE%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>可轉移單票制</t>
+    <t>可转移单票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%A8%98%E5%8F%AF%E8%AE%93%E6%B8%A1%E6%8A%95%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>單記可讓渡投票制</t>
+    <t>单记可让渡投票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%BA%8F%E8%A4%87%E9%81%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>排序複選制</t>
+    <t>排序复选制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E8%BD%89%E7%A7%BB%E5%96%AE%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>不可轉移單票制</t>
+    <t>不可转移单票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E8%A8%98%E5%90%8D%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>不記名投票</t>
+    <t>不记名投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%95%A3%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>解散國會</t>
+    <t>解散国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8A%A8%E8%AE%AE</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%8A%95%E7%A5%A8</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/%D8%B4%D9%88%D8%B1%D8%A7%DB%8C_%D9%86%DA%AF%D9%87%D8%A8%D8%A7%D9%86_%D9%82%D8%A7%D9%86%D9%88%D9%86_%D8%A7%D8%B3%D8%A7%D8%B3%DB%8C</t>
@@ -605,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B0%8D%E6%B4%BE</t>
   </si>
   <si>
-    <t>反對派</t>
+    <t>反对派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>俄羅斯總統</t>
+    <t>俄罗斯总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E6%99%AE%E4%BA%AC</t>
@@ -647,13 +644,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>古希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E4%B8%89%E4%B8%96</t>
@@ -665,31 +659,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第二帝國</t>
+    <t>法兰西第二帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>納粹</t>
+    <t>纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>政變</t>
+    <t>政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
@@ -701,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E9%96%80%E6%AA%BB</t>
   </si>
   <si>
-    <t>選舉門檻</t>
+    <t>选举门槛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89</t>
@@ -743,19 +737,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E9%81%B8%E7%B8%BD%E9%83%A8</t>
   </si>
   <si>
-    <t>競選總部</t>
+    <t>竞选总部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>政黨政治</t>
+    <t>政党政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>政黨體系</t>
+    <t>政党体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -779,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>商務印書館（香港）有限公司</t>
+    <t>商务印书馆（香港）有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -797,16 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,7 +2728,7 @@
         <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2769,10 +2754,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2798,10 +2783,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2827,10 +2812,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -2856,10 +2841,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>10</v>
@@ -2885,10 +2870,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2914,10 +2899,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2943,10 +2928,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -2972,10 +2957,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3001,10 +2986,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3030,10 +3015,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3059,10 +3044,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3088,10 +3073,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3117,10 +3102,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3146,10 +3131,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3175,10 +3160,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3204,10 +3189,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3233,10 +3218,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3262,10 +3247,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3291,10 +3276,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3320,10 +3305,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3349,10 +3334,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3378,10 +3363,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3407,10 +3392,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3436,10 +3421,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3465,10 +3450,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3494,10 +3479,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3523,10 +3508,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3552,10 +3537,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3581,10 +3566,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3610,10 +3595,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3639,10 +3624,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3668,10 +3653,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3697,10 +3682,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -3726,10 +3711,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3755,10 +3740,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3784,10 +3769,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3813,10 +3798,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3842,10 +3827,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3871,10 +3856,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -3900,10 +3885,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3929,10 +3914,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" t="s">
         <v>151</v>
-      </c>
-      <c r="F96" t="s">
-        <v>152</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3958,10 +3943,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3987,10 +3972,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4016,10 +4001,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4045,10 +4030,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -4074,10 +4059,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4103,10 +4088,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4132,10 +4117,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4161,10 +4146,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4190,10 +4175,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4219,10 +4204,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4248,10 +4233,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4277,10 +4262,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4306,10 +4291,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4335,10 +4320,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4364,10 +4349,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4393,10 +4378,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4422,10 +4407,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4451,10 +4436,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4480,10 +4465,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4509,10 +4494,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4538,10 +4523,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4567,10 +4552,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4596,10 +4581,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4625,10 +4610,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>15</v>
@@ -4654,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4683,10 +4668,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4712,10 +4697,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4741,10 +4726,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4770,10 +4755,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4799,10 +4784,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4828,10 +4813,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4857,10 +4842,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4886,10 +4871,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4915,10 +4900,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -4944,10 +4929,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4973,10 +4958,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4985,64 +4970,6 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>132</v>
-      </c>
-      <c r="E133" t="s">
-        <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
-      </c>
-      <c r="G133" t="n">
-        <v>4</v>
-      </c>
-      <c r="H133" t="s">
-        <v>4</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133</v>
-      </c>
-      <c r="E134" t="s">
-        <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>263</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/选举_intext.xlsx
+++ b/xlsx/选举_intext.xlsx
@@ -29,7 +29,7 @@
     <t>決策</t>
   </si>
   <si>
-    <t>政策_政策_政治_选举</t>
+    <t>体育运动_体育运动_伊朗_选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
